--- a/Project1/Final Report/Server Timing.xlsx
+++ b/Project1/Final Report/Server Timing.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Lat</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>Size</t>
+  </si>
+  <si>
+    <t>First Request</t>
+  </si>
+  <si>
+    <t>Average Time</t>
+  </si>
+  <si>
+    <t>% Difference</t>
   </si>
 </sst>
 </file>
@@ -1971,8 +1980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29:N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,6 +1990,9 @@
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
@@ -2380,7 +2392,78 @@
         <v>193851</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <v>0.76584243774413996</v>
+      </c>
+      <c r="M30">
+        <v>0.56170272827148404</v>
+      </c>
+      <c r="N30">
+        <f>(M30/L30)*100</f>
+        <v>73.344424464911029</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>0.71472692489624001</v>
+      </c>
+      <c r="M31">
+        <v>0.57499260902404736</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31:N34" si="1">(M31/L31)*100</f>
+        <v>80.449272161884977</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <v>0.71441245079040505</v>
+      </c>
+      <c r="M32">
+        <v>0.55758471488952599</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="1"/>
+        <v>78.048011939409861</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>1.06262779235839</v>
+      </c>
+      <c r="M33">
+        <v>0.76651663780212276</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="1"/>
+        <v>72.134066444932728</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>1.18682408332824</v>
+      </c>
+      <c r="M34">
+        <v>0.67744135856628307</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="1"/>
+        <v>57.080182992791784</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
         <v>17</v>
       </c>
@@ -2388,7 +2471,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C39" s="4">
         <v>0</v>
       </c>
@@ -2396,7 +2479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C40" s="4">
         <v>32457</v>
       </c>
@@ -2404,7 +2487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C41" s="4">
         <v>55731</v>
       </c>
@@ -2412,7 +2495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C42" s="4">
         <v>193851</v>
       </c>
@@ -2420,7 +2503,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C43" s="4">
         <v>295240</v>
       </c>
